--- a/梦间集/活动本.xlsx
+++ b/梦间集/活动本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,13 +50,17 @@
   </si>
   <si>
     <t>40片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,22 +419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -439,17 +443,17 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>COUNTA(B4:B1001)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5">
         <f>AVERAGE(B4:B1001)</f>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -460,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42965</v>
       </c>
@@ -471,32 +475,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -504,12 +508,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -517,185 +521,244 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>42966</v>
+      </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>42967</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
